--- a/database/industries/shishe/kemina/product/quarterly.xlsx
+++ b/database/industries/shishe/kemina/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kemina\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63C563E-424C-4B10-8CD0-73FA98196A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF10709-2C97-4B69-ADCE-B9A0EDCECA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -553,16 +568,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I41"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,8 +586,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,8 +603,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -595,8 +620,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -605,8 +635,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,8 +652,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -629,8 +669,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -639,8 +684,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -661,8 +711,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -671,102 +736,167 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>43</v>
+      </c>
+      <c r="F10" s="9">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9">
+        <v>75</v>
+      </c>
+      <c r="H10" s="9">
+        <v>67</v>
+      </c>
+      <c r="I10" s="9">
+        <v>103</v>
+      </c>
+      <c r="J10" s="9">
         <v>47</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9">
         <v>48</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>59</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>8413</v>
+      </c>
+      <c r="F11" s="11">
+        <v>8252</v>
+      </c>
+      <c r="G11" s="11">
+        <v>8588</v>
+      </c>
+      <c r="H11" s="11">
+        <v>9018</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8913</v>
+      </c>
+      <c r="J11" s="11">
         <v>8231</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="11">
         <v>15931</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>9345</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>11850</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>8464</v>
+      </c>
+      <c r="F13" s="13">
+        <v>8284</v>
+      </c>
+      <c r="G13" s="13">
+        <v>8664</v>
+      </c>
+      <c r="H13" s="13">
+        <v>9086</v>
+      </c>
+      <c r="I13" s="13">
+        <v>9016</v>
+      </c>
+      <c r="J13" s="13">
         <v>8278</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>0</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>15979</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>9404</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>11881</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -775,8 +905,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -785,8 +920,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -795,10 +935,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -817,8 +962,23 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -827,126 +987,206 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
+        <v>34</v>
+      </c>
+      <c r="F19" s="9">
+        <v>16</v>
+      </c>
+      <c r="G19" s="9">
+        <v>75</v>
+      </c>
+      <c r="H19" s="9">
+        <v>68</v>
+      </c>
+      <c r="I19" s="9">
+        <v>87</v>
+      </c>
+      <c r="J19" s="9">
         <v>43</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="K19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="9">
         <v>51</v>
       </c>
-      <c r="H19" s="9">
+      <c r="M19" s="9">
         <v>57</v>
       </c>
-      <c r="I19" s="9">
+      <c r="N19" s="9">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
+        <v>10178</v>
+      </c>
+      <c r="F20" s="11">
+        <v>10217</v>
+      </c>
+      <c r="G20" s="11">
+        <v>8352</v>
+      </c>
+      <c r="H20" s="11">
+        <v>10428</v>
+      </c>
+      <c r="I20" s="11">
+        <v>9300</v>
+      </c>
+      <c r="J20" s="11">
         <v>7741</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11">
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="11">
         <v>14024</v>
       </c>
-      <c r="H20" s="11">
+      <c r="M20" s="11">
         <v>9736</v>
       </c>
-      <c r="I20" s="11">
+      <c r="N20" s="11">
         <v>9840</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="9">
+        <v>2</v>
       </c>
       <c r="G21" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>10220</v>
+      </c>
+      <c r="F23" s="15">
+        <v>10235</v>
+      </c>
+      <c r="G23" s="15">
+        <v>8429</v>
+      </c>
+      <c r="H23" s="15">
+        <v>10497</v>
+      </c>
+      <c r="I23" s="15">
+        <v>9387</v>
+      </c>
+      <c r="J23" s="15">
         <v>7784</v>
       </c>
-      <c r="F23" s="15">
+      <c r="K23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="15">
+      <c r="L23" s="15">
         <v>14075</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>9793</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>9875</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -955,8 +1195,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -965,8 +1210,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -975,10 +1225,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -997,8 +1252,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1007,126 +1277,206 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>28522</v>
+      </c>
+      <c r="F29" s="9">
+        <v>17060</v>
+      </c>
+      <c r="G29" s="9">
+        <v>83838</v>
+      </c>
+      <c r="H29" s="9">
+        <v>81240</v>
+      </c>
+      <c r="I29" s="9">
+        <v>112068</v>
+      </c>
+      <c r="J29" s="9">
         <v>59818</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="9">
         <v>72477</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>86970</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>56397</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>500522</v>
+      </c>
+      <c r="F30" s="11">
+        <v>568266</v>
+      </c>
+      <c r="G30" s="11">
+        <v>635275</v>
+      </c>
+      <c r="H30" s="11">
+        <v>785259</v>
+      </c>
+      <c r="I30" s="11">
+        <v>769516</v>
+      </c>
+      <c r="J30" s="11">
         <v>785184</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11">
         <v>1277764</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>1049739</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>947145</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>19959</v>
+      </c>
+      <c r="F31" s="9">
+        <v>5334</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2057</v>
+      </c>
+      <c r="H31" s="9">
+        <v>295</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2775</v>
+      </c>
+      <c r="J31" s="9">
         <v>269</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="9">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>0</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>549003</v>
+      </c>
+      <c r="F33" s="15">
+        <v>590660</v>
+      </c>
+      <c r="G33" s="15">
+        <v>721170</v>
+      </c>
+      <c r="H33" s="15">
+        <v>866794</v>
+      </c>
+      <c r="I33" s="15">
+        <v>884359</v>
+      </c>
+      <c r="J33" s="15">
         <v>845271</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>1350241</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>1136709</v>
       </c>
-      <c r="I33" s="15">
+      <c r="N33" s="15">
         <v>1003542</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1135,8 +1485,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1145,8 +1500,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1155,10 +1515,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1177,8 +1542,23 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1187,77 +1567,127 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
+        <v>838882353</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1066250000</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1117840000</v>
+      </c>
+      <c r="H39" s="9">
+        <v>1194705882</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1288137931</v>
+      </c>
+      <c r="J39" s="9">
         <v>1391372093</v>
       </c>
-      <c r="F39" s="9">
+      <c r="K39" s="9">
         <v>1309000000</v>
       </c>
-      <c r="G39" s="9">
+      <c r="L39" s="9">
         <v>1421117647</v>
       </c>
-      <c r="H39" s="9">
+      <c r="M39" s="9">
         <v>1525789474</v>
       </c>
-      <c r="I39" s="9">
+      <c r="N39" s="9">
         <v>1611342857</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
+        <v>49176852</v>
+      </c>
+      <c r="F40" s="11">
+        <v>55221595</v>
+      </c>
+      <c r="G40" s="11">
+        <v>76062620</v>
+      </c>
+      <c r="H40" s="11">
+        <v>75302934</v>
+      </c>
+      <c r="I40" s="11">
+        <v>82743656</v>
+      </c>
+      <c r="J40" s="11">
         <v>102613884</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>89563907</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>91112664</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>107820357</v>
       </c>
-      <c r="I40" s="11">
+      <c r="N40" s="11">
         <v>96254573</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>12</v>
+      <c r="E41" s="9">
+        <v>2494875000</v>
+      </c>
+      <c r="F41" s="9">
+        <v>384500000</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1028500000</v>
+      </c>
+      <c r="H41" s="9">
+        <v>295000000</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shishe/kemina/product/quarterly.xlsx
+++ b/database/industries/shishe/kemina/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF10709-2C97-4B69-ADCE-B9A0EDCECA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2502786-4038-4318-B87F-51F3F6D151F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>سر بطر</t>
@@ -572,12 +572,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +592,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +641,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +690,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +742,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -751,37 +751,37 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F10" s="9">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G10" s="9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H10" s="9">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="I10" s="9">
-        <v>103</v>
-      </c>
-      <c r="J10" s="9">
         <v>47</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>48</v>
       </c>
       <c r="L10" s="9">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M10" s="9">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N10" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -790,37 +790,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>8413</v>
+        <v>8252</v>
       </c>
       <c r="F11" s="11">
-        <v>8252</v>
+        <v>8588</v>
       </c>
       <c r="G11" s="11">
-        <v>8588</v>
+        <v>9018</v>
       </c>
       <c r="H11" s="11">
-        <v>9018</v>
+        <v>8913</v>
       </c>
       <c r="I11" s="11">
-        <v>8913</v>
-      </c>
-      <c r="J11" s="11">
         <v>8231</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
+      <c r="J11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11">
+        <v>15931</v>
       </c>
       <c r="L11" s="11">
-        <v>15931</v>
+        <v>9343</v>
       </c>
       <c r="M11" s="11">
-        <v>9345</v>
+        <v>11852</v>
       </c>
       <c r="N11" s="11">
-        <v>11850</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -829,25 +829,25 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
       </c>
       <c r="H12" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>17</v>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -859,44 +859,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>8464</v>
+        <v>8284</v>
       </c>
       <c r="F13" s="13">
-        <v>8284</v>
+        <v>8664</v>
       </c>
       <c r="G13" s="13">
-        <v>8664</v>
+        <v>9086</v>
       </c>
       <c r="H13" s="13">
-        <v>9086</v>
+        <v>9016</v>
       </c>
       <c r="I13" s="13">
-        <v>9016</v>
+        <v>8278</v>
       </c>
       <c r="J13" s="13">
-        <v>8278</v>
+        <v>0</v>
       </c>
       <c r="K13" s="13">
-        <v>0</v>
+        <v>15979</v>
       </c>
       <c r="L13" s="13">
-        <v>15979</v>
+        <v>9396</v>
       </c>
       <c r="M13" s="13">
-        <v>9404</v>
+        <v>11889</v>
       </c>
       <c r="N13" s="13">
-        <v>11881</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11761</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -911,7 +911,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -926,7 +926,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -941,7 +941,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
@@ -978,7 +978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -993,7 +993,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1002,37 +1002,37 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F19" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G19" s="9">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H19" s="9">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I19" s="9">
-        <v>87</v>
-      </c>
-      <c r="J19" s="9">
         <v>43</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>17</v>
+      <c r="J19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9">
+        <v>51</v>
       </c>
       <c r="L19" s="9">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M19" s="9">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N19" s="9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>18</v>
       </c>
@@ -1041,37 +1041,37 @@
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
-        <v>10178</v>
+        <v>10217</v>
       </c>
       <c r="F20" s="11">
-        <v>10217</v>
+        <v>8352</v>
       </c>
       <c r="G20" s="11">
-        <v>8352</v>
+        <v>10428</v>
       </c>
       <c r="H20" s="11">
-        <v>10428</v>
+        <v>9300</v>
       </c>
       <c r="I20" s="11">
-        <v>9300</v>
-      </c>
-      <c r="J20" s="11">
         <v>7741</v>
       </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11">
+        <v>14024</v>
       </c>
       <c r="L20" s="11">
-        <v>14024</v>
+        <v>8517</v>
       </c>
       <c r="M20" s="11">
-        <v>9736</v>
+        <v>11059</v>
       </c>
       <c r="N20" s="11">
-        <v>9840</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10427</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
@@ -1080,25 +1080,25 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F21" s="9">
         <v>2</v>
       </c>
       <c r="G21" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>17</v>
+      <c r="J21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>23</v>
       </c>
@@ -1149,44 +1149,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>10220</v>
+        <v>10235</v>
       </c>
       <c r="F23" s="15">
-        <v>10235</v>
+        <v>8429</v>
       </c>
       <c r="G23" s="15">
-        <v>8429</v>
+        <v>10497</v>
       </c>
       <c r="H23" s="15">
-        <v>10497</v>
+        <v>9387</v>
       </c>
       <c r="I23" s="15">
-        <v>9387</v>
+        <v>7784</v>
       </c>
       <c r="J23" s="15">
-        <v>7784</v>
+        <v>0</v>
       </c>
       <c r="K23" s="15">
-        <v>0</v>
+        <v>14075</v>
       </c>
       <c r="L23" s="15">
-        <v>14075</v>
+        <v>8573</v>
       </c>
       <c r="M23" s="15">
-        <v>9793</v>
+        <v>11095</v>
       </c>
       <c r="N23" s="15">
-        <v>9875</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1201,7 +1201,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1231,7 +1231,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>25</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1283,7 +1283,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1292,37 +1292,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>28522</v>
+        <v>17060</v>
       </c>
       <c r="F29" s="9">
-        <v>17060</v>
+        <v>83838</v>
       </c>
       <c r="G29" s="9">
-        <v>83838</v>
+        <v>81240</v>
       </c>
       <c r="H29" s="9">
-        <v>81240</v>
+        <v>112068</v>
       </c>
       <c r="I29" s="9">
-        <v>112068</v>
-      </c>
-      <c r="J29" s="9">
         <v>59818</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9">
+        <v>72477</v>
       </c>
       <c r="L29" s="9">
-        <v>72477</v>
+        <v>85231</v>
       </c>
       <c r="M29" s="9">
-        <v>86970</v>
+        <v>58136</v>
       </c>
       <c r="N29" s="9">
-        <v>56397</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>50989</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1331,37 +1331,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>500522</v>
+        <v>568266</v>
       </c>
       <c r="F30" s="11">
-        <v>568266</v>
+        <v>635275</v>
       </c>
       <c r="G30" s="11">
-        <v>635275</v>
+        <v>785259</v>
       </c>
       <c r="H30" s="11">
-        <v>785259</v>
+        <v>769516</v>
       </c>
       <c r="I30" s="11">
-        <v>769516</v>
-      </c>
-      <c r="J30" s="11">
         <v>785184</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1277764</v>
       </c>
       <c r="L30" s="11">
-        <v>1277764</v>
+        <v>981666</v>
       </c>
       <c r="M30" s="11">
-        <v>1049739</v>
+        <v>1015218</v>
       </c>
       <c r="N30" s="11">
-        <v>947145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1492067</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>20</v>
       </c>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>19959</v>
+        <v>5334</v>
       </c>
       <c r="F31" s="9">
-        <v>5334</v>
+        <v>2057</v>
       </c>
       <c r="G31" s="9">
-        <v>2057</v>
+        <v>295</v>
       </c>
       <c r="H31" s="9">
-        <v>295</v>
+        <v>2775</v>
       </c>
       <c r="I31" s="9">
-        <v>2775</v>
-      </c>
-      <c r="J31" s="9">
         <v>269</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>17</v>
+      <c r="J31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>23</v>
       </c>
@@ -1439,44 +1439,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>549003</v>
+        <v>590660</v>
       </c>
       <c r="F33" s="15">
-        <v>590660</v>
+        <v>721170</v>
       </c>
       <c r="G33" s="15">
-        <v>721170</v>
+        <v>866794</v>
       </c>
       <c r="H33" s="15">
-        <v>866794</v>
+        <v>884359</v>
       </c>
       <c r="I33" s="15">
-        <v>884359</v>
+        <v>845271</v>
       </c>
       <c r="J33" s="15">
-        <v>845271</v>
+        <v>0</v>
       </c>
       <c r="K33" s="15">
-        <v>0</v>
+        <v>1350241</v>
       </c>
       <c r="L33" s="15">
-        <v>1350241</v>
+        <v>1066897</v>
       </c>
       <c r="M33" s="15">
-        <v>1136709</v>
+        <v>1073354</v>
       </c>
       <c r="N33" s="15">
-        <v>1003542</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1543056</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1491,7 +1491,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1506,7 +1506,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1521,7 +1521,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1573,7 +1573,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
@@ -1582,37 +1582,37 @@
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9">
-        <v>838882353</v>
+        <v>1066250000</v>
       </c>
       <c r="F39" s="9">
-        <v>1066250000</v>
+        <v>1117840000</v>
       </c>
       <c r="G39" s="9">
-        <v>1117840000</v>
+        <v>1194705882</v>
       </c>
       <c r="H39" s="9">
-        <v>1194705882</v>
+        <v>1288137931</v>
       </c>
       <c r="I39" s="9">
-        <v>1288137931</v>
+        <v>1391372093</v>
       </c>
       <c r="J39" s="9">
-        <v>1391372093</v>
+        <v>1309000000</v>
       </c>
       <c r="K39" s="9">
-        <v>1309000000</v>
+        <v>1421117647</v>
       </c>
       <c r="L39" s="9">
-        <v>1421117647</v>
+        <v>1521982143</v>
       </c>
       <c r="M39" s="9">
-        <v>1525789474</v>
+        <v>1611342857</v>
       </c>
       <c r="N39" s="9">
-        <v>1611342857</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1961115385</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>18</v>
       </c>
@@ -1621,37 +1621,37 @@
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
-        <v>49176852</v>
+        <v>55221595</v>
       </c>
       <c r="F40" s="11">
-        <v>55221595</v>
+        <v>76062620</v>
       </c>
       <c r="G40" s="11">
-        <v>76062620</v>
+        <v>75302934</v>
       </c>
       <c r="H40" s="11">
-        <v>75302934</v>
+        <v>82743656</v>
       </c>
       <c r="I40" s="11">
-        <v>82743656</v>
+        <v>102613884</v>
       </c>
       <c r="J40" s="11">
-        <v>102613884</v>
+        <v>89563907</v>
       </c>
       <c r="K40" s="11">
-        <v>89563907</v>
+        <v>91112664</v>
       </c>
       <c r="L40" s="11">
-        <v>91112664</v>
+        <v>115259598</v>
       </c>
       <c r="M40" s="11">
-        <v>107820357</v>
+        <v>96254573</v>
       </c>
       <c r="N40" s="11">
-        <v>96254573</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>143096480</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
@@ -1660,16 +1660,16 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>2494875000</v>
+        <v>384500000</v>
       </c>
       <c r="F41" s="9">
-        <v>384500000</v>
+        <v>1028500000</v>
       </c>
       <c r="G41" s="9">
-        <v>1028500000</v>
-      </c>
-      <c r="H41" s="9">
         <v>295000000</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I41" s="9" t="s">
         <v>17</v>

--- a/database/industries/shishe/kemina/product/quarterly.xlsx
+++ b/database/industries/shishe/kemina/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shishe\kemina\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2502786-4038-4318-B87F-51F3F6D151F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF10D6A-BB08-4618-AAC3-6D1BE48EB3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -67,21 +67,21 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>بطر و جار</t>
+  </si>
+  <si>
+    <t>تن</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سر بطر</t>
   </si>
   <si>
     <t>میلیون عدد</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>بطر و جار</t>
-  </si>
-  <si>
-    <t>تن</t>
-  </si>
-  <si>
     <t>درآمد ارائه خدمات ( خدمات کارمزدی )</t>
   </si>
   <si>
@@ -91,12 +91,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>شل</t>
-  </si>
-  <si>
-    <t>عدد</t>
-  </si>
-  <si>
     <t>مبلغ فروش</t>
   </si>
   <si>
@@ -106,13 +100,19 @@
     <t>نرخ فروش</t>
   </si>
   <si>
+    <t>تن / ریال</t>
+  </si>
+  <si>
     <t>میلیون عدد / ریال</t>
   </si>
   <si>
-    <t>تن / ریال</t>
-  </si>
-  <si>
     <t>عدد / ریال</t>
+  </si>
+  <si>
+    <t>مبلغ بهای تمام شده</t>
+  </si>
+  <si>
+    <t>سود ناخالص</t>
   </si>
 </sst>
 </file>
@@ -242,16 +242,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -743,50 +743,26 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>30</v>
-      </c>
-      <c r="F10" s="9">
-        <v>75</v>
-      </c>
-      <c r="G10" s="9">
-        <v>67</v>
-      </c>
-      <c r="H10" s="9">
-        <v>103</v>
-      </c>
-      <c r="I10" s="9">
-        <v>47</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9">
-        <v>48</v>
-      </c>
-      <c r="L10" s="9">
-        <v>53</v>
-      </c>
-      <c r="M10" s="9">
-        <v>37</v>
-      </c>
-      <c r="N10" s="9">
-        <v>21</v>
-      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
@@ -822,94 +798,118 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F12" s="9">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="G12" s="9">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="9">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L12" s="9">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="M12" s="9">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N12" s="9">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13">
         <v>8284</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>8664</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <v>9086</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H14" s="13">
         <v>9016</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I14" s="13">
         <v>8278</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
         <v>15979</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L14" s="13">
         <v>9396</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M14" s="13">
         <v>11889</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N14" s="13">
         <v>11761</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -941,265 +941,241 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N18" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
+        <v>10217</v>
+      </c>
+      <c r="F21" s="11">
+        <v>8352</v>
+      </c>
+      <c r="G21" s="11">
+        <v>10428</v>
+      </c>
+      <c r="H21" s="11">
+        <v>9300</v>
+      </c>
+      <c r="I21" s="11">
+        <v>7741</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="11">
+        <v>14024</v>
+      </c>
+      <c r="L21" s="11">
+        <v>8517</v>
+      </c>
+      <c r="M21" s="11">
+        <v>11059</v>
+      </c>
+      <c r="N21" s="11">
+        <v>10427</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
         <v>16</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F22" s="9">
         <v>75</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G22" s="9">
         <v>68</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H22" s="9">
         <v>87</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I22" s="9">
         <v>43</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K22" s="9">
         <v>51</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L22" s="9">
         <v>56</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M22" s="9">
         <v>36</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N22" s="9">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
-        <v>10217</v>
-      </c>
-      <c r="F20" s="11">
-        <v>8352</v>
-      </c>
-      <c r="G20" s="11">
-        <v>10428</v>
-      </c>
-      <c r="H20" s="11">
-        <v>9300</v>
-      </c>
-      <c r="I20" s="11">
-        <v>7741</v>
-      </c>
-      <c r="J20" s="11" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11">
+        <v>2</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="11">
-        <v>14024</v>
-      </c>
-      <c r="L20" s="11">
-        <v>8517</v>
-      </c>
-      <c r="M20" s="11">
-        <v>11059</v>
-      </c>
-      <c r="N20" s="11">
-        <v>10427</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>2</v>
-      </c>
-      <c r="F21" s="9">
-        <v>2</v>
-      </c>
-      <c r="G21" s="9">
-        <v>1</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13">
         <v>10235</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="13">
         <v>8429</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G24" s="13">
         <v>10497</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H24" s="13">
         <v>9387</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I24" s="13">
         <v>7784</v>
       </c>
-      <c r="J23" s="15">
-        <v>0</v>
-      </c>
-      <c r="K23" s="15">
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
         <v>14075</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L24" s="13">
         <v>8573</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M24" s="13">
         <v>11095</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N24" s="13">
         <v>10453</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
@@ -1231,265 +1207,241 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N28" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9">
+      <c r="C31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11">
+        <v>568266</v>
+      </c>
+      <c r="F31" s="11">
+        <v>635275</v>
+      </c>
+      <c r="G31" s="11">
+        <v>785259</v>
+      </c>
+      <c r="H31" s="11">
+        <v>769516</v>
+      </c>
+      <c r="I31" s="11">
+        <v>785184</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1277764</v>
+      </c>
+      <c r="L31" s="11">
+        <v>981666</v>
+      </c>
+      <c r="M31" s="11">
+        <v>1015218</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1492067</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
         <v>17060</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F32" s="9">
         <v>83838</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G32" s="9">
         <v>81240</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H32" s="9">
         <v>112068</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I32" s="9">
         <v>59818</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K32" s="9">
         <v>72477</v>
       </c>
-      <c r="L29" s="9">
+      <c r="L32" s="9">
         <v>85231</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M32" s="9">
         <v>58136</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N32" s="9">
         <v>50989</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>568266</v>
-      </c>
-      <c r="F30" s="11">
-        <v>635275</v>
-      </c>
-      <c r="G30" s="11">
-        <v>785259</v>
-      </c>
-      <c r="H30" s="11">
-        <v>769516</v>
-      </c>
-      <c r="I30" s="11">
-        <v>785184</v>
-      </c>
-      <c r="J30" s="11" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11">
+        <v>5334</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2057</v>
+      </c>
+      <c r="G33" s="11">
+        <v>295</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2775</v>
+      </c>
+      <c r="I33" s="11">
+        <v>269</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="11">
-        <v>1277764</v>
-      </c>
-      <c r="L30" s="11">
-        <v>981666</v>
-      </c>
-      <c r="M30" s="11">
-        <v>1015218</v>
-      </c>
-      <c r="N30" s="11">
-        <v>1492067</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9">
-        <v>5334</v>
-      </c>
-      <c r="F31" s="9">
-        <v>2057</v>
-      </c>
-      <c r="G31" s="9">
-        <v>295</v>
-      </c>
-      <c r="H31" s="9">
-        <v>2775</v>
-      </c>
-      <c r="I31" s="9">
-        <v>269</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="9">
-        <v>0</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
-        <v>0</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
         <v>590660</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="13">
         <v>721170</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G34" s="13">
         <v>866794</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H34" s="13">
         <v>884359</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I34" s="13">
         <v>845271</v>
       </c>
-      <c r="J33" s="15">
-        <v>0</v>
-      </c>
-      <c r="K33" s="15">
+      <c r="J34" s="13">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
         <v>1350241</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L34" s="13">
         <v>1066897</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M34" s="13">
         <v>1073354</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N34" s="13">
         <v>1543056</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
@@ -1521,173 +1473,501 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11">
+        <v>55221595</v>
+      </c>
+      <c r="F41" s="11">
+        <v>76062620</v>
+      </c>
+      <c r="G41" s="11">
+        <v>75302934</v>
+      </c>
+      <c r="H41" s="11">
+        <v>82743656</v>
+      </c>
+      <c r="I41" s="11">
+        <v>102613884</v>
+      </c>
+      <c r="J41" s="11">
+        <v>89563907</v>
+      </c>
+      <c r="K41" s="11">
+        <v>91112664</v>
+      </c>
+      <c r="L41" s="11">
+        <v>115259598</v>
+      </c>
+      <c r="M41" s="11">
+        <v>96254573</v>
+      </c>
+      <c r="N41" s="11">
+        <v>143096480</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>1066250000</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1117840000</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1194705882</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1288137931</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1391372093</v>
+      </c>
+      <c r="J42" s="9">
+        <v>1309000000</v>
+      </c>
+      <c r="K42" s="9">
+        <v>1421117647</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1521982143</v>
+      </c>
+      <c r="M42" s="9">
+        <v>1611342857</v>
+      </c>
+      <c r="N42" s="9">
+        <v>1961115385</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11">
+        <v>384500000</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1028500000</v>
+      </c>
+      <c r="G43" s="11">
+        <v>295000000</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G47" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K47" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M37" s="6" t="s">
+      <c r="M47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N47" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>1066250000</v>
-      </c>
-      <c r="F39" s="9">
-        <v>1117840000</v>
-      </c>
-      <c r="G39" s="9">
-        <v>1194705882</v>
-      </c>
-      <c r="H39" s="9">
-        <v>1288137931</v>
-      </c>
-      <c r="I39" s="9">
-        <v>1391372093</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1309000000</v>
-      </c>
-      <c r="K39" s="9">
-        <v>1421117647</v>
-      </c>
-      <c r="L39" s="9">
-        <v>1521982143</v>
-      </c>
-      <c r="M39" s="9">
-        <v>1611342857</v>
-      </c>
-      <c r="N39" s="9">
-        <v>1961115385</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>55221595</v>
-      </c>
-      <c r="F40" s="11">
-        <v>76062620</v>
-      </c>
-      <c r="G40" s="11">
-        <v>75302934</v>
-      </c>
-      <c r="H40" s="11">
-        <v>82743656</v>
-      </c>
-      <c r="I40" s="11">
-        <v>102613884</v>
-      </c>
-      <c r="J40" s="11">
-        <v>89563907</v>
-      </c>
-      <c r="K40" s="11">
-        <v>91112664</v>
-      </c>
-      <c r="L40" s="11">
-        <v>115259598</v>
-      </c>
-      <c r="M40" s="11">
-        <v>96254573</v>
-      </c>
-      <c r="N40" s="11">
-        <v>143096480</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="9" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15">
+        <v>0</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="15">
+        <v>0</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>384500000</v>
-      </c>
-      <c r="F41" s="9">
-        <v>1028500000</v>
-      </c>
-      <c r="G41" s="9">
-        <v>295000000</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>17</v>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15">
+        <v>0</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="15">
+        <v>0</v>
+      </c>
+      <c r="M57" s="15">
+        <v>0</v>
+      </c>
+      <c r="N57" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
